--- a/Proof_Data.xlsx
+++ b/Proof_Data.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3._Semester_HS23\Master_Thesis\Masters_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8E7F4-8FBD-427B-BC11-553B50ADCCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8629E88-836A-479E-9BFA-6B9C2F88C0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="63">
   <si>
     <t>M1</t>
   </si>
@@ -538,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -559,8 +570,11 @@
       <c r="D1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -573,8 +587,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -584,8 +601,11 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -595,8 +615,11 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -606,8 +629,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -620,8 +646,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -631,8 +660,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -645,8 +677,11 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -659,8 +694,11 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -673,8 +711,11 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -687,8 +728,11 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -698,8 +742,11 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -712,8 +759,11 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -726,8 +776,11 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -737,8 +790,11 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -748,8 +804,11 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -762,8 +821,11 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -773,8 +835,11 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -787,8 +852,11 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -801,8 +869,11 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -815,8 +886,11 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -826,8 +900,11 @@
       <c r="D22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -838,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -849,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -863,7 +940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -874,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -888,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -902,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -916,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -927,7 +1004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -938,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
